--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna5-Epha4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna5-Epha4.xlsx
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.09353433333333334</v>
+        <v>0.1728506666666667</v>
       </c>
       <c r="H2">
-        <v>0.280603</v>
+        <v>0.518552</v>
       </c>
       <c r="I2">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="J2">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.189414999999999</v>
+        <v>8.813278666666667</v>
       </c>
       <c r="N2">
-        <v>21.568245</v>
+        <v>26.439836</v>
       </c>
       <c r="O2">
-        <v>0.3327435204651371</v>
+        <v>0.3770976991891536</v>
       </c>
       <c r="P2">
-        <v>0.3327435204651371</v>
+        <v>0.3770976991891536</v>
       </c>
       <c r="Q2">
-        <v>0.6724571390816667</v>
+        <v>1.523381093052445</v>
       </c>
       <c r="R2">
-        <v>6.052114251735</v>
+        <v>13.710429837472</v>
       </c>
       <c r="S2">
-        <v>0.0156842084520883</v>
+        <v>0.03169518868744595</v>
       </c>
       <c r="T2">
-        <v>0.0156842084520883</v>
+        <v>0.03169518868744595</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.09353433333333334</v>
+        <v>0.1728506666666667</v>
       </c>
       <c r="H3">
-        <v>0.280603</v>
+        <v>0.518552</v>
       </c>
       <c r="I3">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="J3">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>38.717137</v>
       </c>
       <c r="O3">
-        <v>0.5973075912162077</v>
+        <v>0.5522024902836482</v>
       </c>
       <c r="P3">
-        <v>0.5973075912162079</v>
+        <v>0.5522024902836482</v>
       </c>
       <c r="Q3">
-        <v>1.207127199290111</v>
+        <v>2.230760980624889</v>
       </c>
       <c r="R3">
-        <v>10.864144793611</v>
+        <v>20.076848825624</v>
       </c>
       <c r="S3">
-        <v>0.0281547083397866</v>
+        <v>0.04641280538399313</v>
       </c>
       <c r="T3">
-        <v>0.02815470833978661</v>
+        <v>0.04641280538399313</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.09353433333333334</v>
+        <v>0.1728506666666667</v>
       </c>
       <c r="H4">
-        <v>0.280603</v>
+        <v>0.518552</v>
       </c>
       <c r="I4">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="J4">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.490109666666666</v>
+        <v>1.649921333333333</v>
       </c>
       <c r="N4">
-        <v>4.470329</v>
+        <v>4.949764</v>
       </c>
       <c r="O4">
-        <v>0.0689658805849709</v>
+        <v>0.07059592260441032</v>
       </c>
       <c r="P4">
-        <v>0.06896588058497091</v>
+        <v>0.07059592260441033</v>
       </c>
       <c r="Q4">
-        <v>0.1393764142652222</v>
+        <v>0.2851900024142223</v>
       </c>
       <c r="R4">
-        <v>1.254387728387</v>
+        <v>2.566710021728</v>
       </c>
       <c r="S4">
-        <v>0.003250777793251858</v>
+        <v>0.005933611083606087</v>
       </c>
       <c r="T4">
-        <v>0.003250777793251859</v>
+        <v>0.005933611083606088</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.09353433333333334</v>
+        <v>0.1728506666666667</v>
       </c>
       <c r="H5">
-        <v>0.280603</v>
+        <v>0.518552</v>
       </c>
       <c r="I5">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="J5">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.02123933333333333</v>
+        <v>0.002428</v>
       </c>
       <c r="N5">
-        <v>0.063718</v>
+        <v>0.007284</v>
       </c>
       <c r="O5">
-        <v>0.0009830077336842938</v>
+        <v>0.0001038879227879399</v>
       </c>
       <c r="P5">
-        <v>0.000983007733684294</v>
+        <v>0.0001038879227879399</v>
       </c>
       <c r="Q5">
-        <v>0.001986606883777778</v>
+        <v>0.0004196814186666667</v>
       </c>
       <c r="R5">
-        <v>0.017879461954</v>
+        <v>0.003777132768</v>
       </c>
       <c r="S5">
-        <v>4.63350816976607E-05</v>
+        <v>8.731814917435808E-06</v>
       </c>
       <c r="T5">
-        <v>4.633508169766071E-05</v>
+        <v>8.731814917435808E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>4.103153</v>
       </c>
       <c r="I6">
-        <v>0.6892525793933763</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="J6">
-        <v>0.6892525793933763</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.189414999999999</v>
+        <v>8.813278666666667</v>
       </c>
       <c r="N6">
-        <v>21.568245</v>
+        <v>26.439836</v>
       </c>
       <c r="O6">
-        <v>0.3327435204651371</v>
+        <v>0.3770976991891536</v>
       </c>
       <c r="P6">
-        <v>0.3327435204651371</v>
+        <v>0.3770976991891536</v>
       </c>
       <c r="Q6">
-        <v>9.833089908498332</v>
+        <v>12.05407693365644</v>
       </c>
       <c r="R6">
-        <v>88.49780917648499</v>
+        <v>108.486692402908</v>
       </c>
       <c r="S6">
-        <v>0.2293443297570284</v>
+        <v>0.2507949222999042</v>
       </c>
       <c r="T6">
-        <v>0.2293443297570284</v>
+        <v>0.2507949222999042</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>4.103153</v>
       </c>
       <c r="I7">
-        <v>0.6892525793933763</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="J7">
-        <v>0.6892525793933763</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>38.717137</v>
       </c>
       <c r="O7">
-        <v>0.5973075912162077</v>
+        <v>0.5522024902836482</v>
       </c>
       <c r="P7">
-        <v>0.5973075912162079</v>
+        <v>0.5522024902836482</v>
       </c>
       <c r="Q7">
         <v>17.65137075921789</v>
@@ -883,10 +883,10 @@
         <v>158.862336832961</v>
       </c>
       <c r="S7">
-        <v>0.4116957979370155</v>
+        <v>0.3672511949616385</v>
       </c>
       <c r="T7">
-        <v>0.4116957979370157</v>
+        <v>0.3672511949616385</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>4.103153</v>
       </c>
       <c r="I8">
-        <v>0.6892525793933763</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="J8">
-        <v>0.6892525793933763</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.490109666666666</v>
+        <v>1.649921333333333</v>
       </c>
       <c r="N8">
-        <v>4.470329</v>
+        <v>4.949764</v>
       </c>
       <c r="O8">
-        <v>0.0689658805849709</v>
+        <v>0.07059592260441032</v>
       </c>
       <c r="P8">
-        <v>0.06896588058497091</v>
+        <v>0.07059592260441033</v>
       </c>
       <c r="Q8">
-        <v>2.038049316370778</v>
+        <v>2.256626556210222</v>
       </c>
       <c r="R8">
-        <v>18.342443847337</v>
+        <v>20.309639005892</v>
       </c>
       <c r="S8">
-        <v>0.04753491108332676</v>
+        <v>0.04695095982376226</v>
       </c>
       <c r="T8">
-        <v>0.04753491108332677</v>
+        <v>0.04695095982376227</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>4.103153</v>
       </c>
       <c r="I9">
-        <v>0.6892525793933763</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="J9">
-        <v>0.6892525793933763</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.02123933333333333</v>
+        <v>0.002428</v>
       </c>
       <c r="N9">
-        <v>0.063718</v>
+        <v>0.007284</v>
       </c>
       <c r="O9">
-        <v>0.0009830077336842938</v>
+        <v>0.0001038879227879399</v>
       </c>
       <c r="P9">
-        <v>0.000983007733684294</v>
+        <v>0.0001038879227879399</v>
       </c>
       <c r="Q9">
-        <v>0.02904941142822222</v>
+        <v>0.003320818494666667</v>
       </c>
       <c r="R9">
-        <v>0.261444702854</v>
+        <v>0.029887366452</v>
       </c>
       <c r="S9">
-        <v>0.0006775406160055365</v>
+        <v>6.909234285842402E-05</v>
       </c>
       <c r="T9">
-        <v>0.0006775406160055367</v>
+        <v>6.909234285842402E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.523097</v>
+        <v>0.5159453333333334</v>
       </c>
       <c r="H10">
-        <v>1.569291</v>
+        <v>1.547836</v>
       </c>
       <c r="I10">
-        <v>0.2636113909397994</v>
+        <v>0.2508834936018741</v>
       </c>
       <c r="J10">
-        <v>0.2636113909397994</v>
+        <v>0.2508834936018741</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.189414999999999</v>
+        <v>8.813278666666667</v>
       </c>
       <c r="N10">
-        <v>21.568245</v>
+        <v>26.439836</v>
       </c>
       <c r="O10">
-        <v>0.3327435204651371</v>
+        <v>0.3770976991891536</v>
       </c>
       <c r="P10">
-        <v>0.3327435204651371</v>
+        <v>0.3770976991891536</v>
       </c>
       <c r="Q10">
-        <v>3.760761418255</v>
+        <v>4.54716999943289</v>
       </c>
       <c r="R10">
-        <v>33.84685276429499</v>
+        <v>40.924529994896</v>
       </c>
       <c r="S10">
-        <v>0.08771498225602038</v>
+        <v>0.09460758820180348</v>
       </c>
       <c r="T10">
-        <v>0.0877149822560204</v>
+        <v>0.09460758820180348</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.523097</v>
+        <v>0.5159453333333334</v>
       </c>
       <c r="H11">
-        <v>1.569291</v>
+        <v>1.547836</v>
       </c>
       <c r="I11">
-        <v>0.2636113909397994</v>
+        <v>0.2508834936018741</v>
       </c>
       <c r="J11">
-        <v>0.2636113909397994</v>
+        <v>0.2508834936018741</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>38.717137</v>
       </c>
       <c r="O11">
-        <v>0.5973075912162077</v>
+        <v>0.5522024902836482</v>
       </c>
       <c r="P11">
-        <v>0.5973075912162079</v>
+        <v>0.5522024902836482</v>
       </c>
       <c r="Q11">
-        <v>6.750939404429667</v>
+        <v>6.658642051725779</v>
       </c>
       <c r="R11">
-        <v>60.758454639867</v>
+        <v>59.927778465532</v>
       </c>
       <c r="S11">
-        <v>0.1574570849394056</v>
+        <v>0.1385384899380166</v>
       </c>
       <c r="T11">
-        <v>0.1574570849394057</v>
+        <v>0.1385384899380166</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.523097</v>
+        <v>0.5159453333333334</v>
       </c>
       <c r="H12">
-        <v>1.569291</v>
+        <v>1.547836</v>
       </c>
       <c r="I12">
-        <v>0.2636113909397994</v>
+        <v>0.2508834936018741</v>
       </c>
       <c r="J12">
-        <v>0.2636113909397994</v>
+        <v>0.2508834936018741</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.490109666666666</v>
+        <v>1.649921333333333</v>
       </c>
       <c r="N12">
-        <v>4.470329</v>
+        <v>4.949764</v>
       </c>
       <c r="O12">
-        <v>0.0689658805849709</v>
+        <v>0.07059592260441032</v>
       </c>
       <c r="P12">
-        <v>0.06896588058497091</v>
+        <v>0.07059592260441033</v>
       </c>
       <c r="Q12">
-        <v>0.7794718963043332</v>
+        <v>0.8512692123004445</v>
       </c>
       <c r="R12">
-        <v>7.015247066739</v>
+        <v>7.661422910704</v>
       </c>
       <c r="S12">
-        <v>0.01818019170839228</v>
+        <v>0.01771135169704198</v>
       </c>
       <c r="T12">
-        <v>0.01818019170839229</v>
+        <v>0.01771135169704198</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.523097</v>
+        <v>0.5159453333333334</v>
       </c>
       <c r="H13">
-        <v>1.569291</v>
+        <v>1.547836</v>
       </c>
       <c r="I13">
-        <v>0.2636113909397994</v>
+        <v>0.2508834936018741</v>
       </c>
       <c r="J13">
-        <v>0.2636113909397994</v>
+        <v>0.2508834936018741</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.02123933333333333</v>
+        <v>0.002428</v>
       </c>
       <c r="N13">
-        <v>0.063718</v>
+        <v>0.007284</v>
       </c>
       <c r="O13">
-        <v>0.0009830077336842938</v>
+        <v>0.0001038879227879399</v>
       </c>
       <c r="P13">
-        <v>0.000983007733684294</v>
+        <v>0.0001038879227879399</v>
       </c>
       <c r="Q13">
-        <v>0.01111023154866667</v>
+        <v>0.001252715269333333</v>
       </c>
       <c r="R13">
-        <v>0.09999208393799999</v>
+        <v>0.011274437424</v>
       </c>
       <c r="S13">
-        <v>0.0002591320359810966</v>
+        <v>2.606376501208012E-05</v>
       </c>
       <c r="T13">
-        <v>0.0002591320359810967</v>
+        <v>2.606376501208012E-05</v>
       </c>
     </row>
   </sheetData>
